--- a/CSC3510 S2021/Lectures/Decision Coverage.xlsx
+++ b/CSC3510 S2021/Lectures/Decision Coverage.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SDLC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1009,6 +1010,1043 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4713314D-8515-4E28-8065-116F39E8716C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7172325" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="2095500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="5905500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5524500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="11430000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15430500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="15430500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162776</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="19735800"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="19812000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="24003000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="24193500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="27813000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="28003500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="32194500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="32385000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36004500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="36766500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="41148000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10376</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>105254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="40871775"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="44577000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="45148500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="48958500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="49339500"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="53340000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="53721000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="57531000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="57531000"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1277,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1286,4 +2324,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>